--- a/doc/待办事项.xlsx
+++ b/doc/待办事项.xlsx
@@ -11,6 +11,7 @@
     <sheet name="备注" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题!$A$1:$I$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">问题!$A$1:$I$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +179,18 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏菁反映仓库发货功能没有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +813,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G4" sqref="C2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1032,7 +1045,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1050,9 +1063,15 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1398,6 +1417,7 @@
       <c r="I38" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B5:B9">

--- a/doc/待办事项.xlsx
+++ b/doc/待办事项.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,11 +186,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>魏菁反映仓库发货功能没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏菁反映仓库发货功能没有</t>
+  </si>
+  <si>
+    <t>售后管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事务在头部写  @Transactional(readOnly=false),在需要事务的头部写 @Transactional
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,7 +828,8 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="C2:G4"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1064,13 +1080,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1082,9 +1098,15 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1095,9 +1117,15 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1108,9 +1136,15 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1426,7 +1460,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C38">
       <formula1>"超高,高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B10:B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B10:B15">
       <formula1>"基础,业务,物料,工厂,共通"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/待办事项.xlsx
+++ b/doc/待办事项.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,22 @@
   <si>
     <t xml:space="preserve">事务在头部写  @Transactional(readOnly=false),在需要事务的头部写 @Transactional
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuul增加ssl配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/7/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/7/3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,7 +845,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1155,14 +1171,28 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -1460,7 +1490,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C38">
       <formula1>"超高,高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B10:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B10:B16">
       <formula1>"基础,业务,物料,工厂,共通"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/待办事项.xlsx
+++ b/doc/待办事项.xlsx
@@ -11,7 +11,7 @@
     <sheet name="备注" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题!$A$1:$I$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">问题!$A$1:$I$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,61 @@
   </si>
   <si>
     <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏菁反映仓库发货功能没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>售后管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事务在头部写  @Transactional(readOnly=false),在需要事务的头部写 @Transactional
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuul增加ssl配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/7/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/7/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张英菲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/7/3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,53 +230,6 @@
 四、门店管理，过滤后会弹回至初始界面，分组填什么？无法确认门店在K3系统是否存在
 五、机构管理呢？
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏菁反映仓库发货功能没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础</t>
-  </si>
-  <si>
-    <t>售后管理功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通</t>
-  </si>
-  <si>
-    <t xml:space="preserve">事务在头部写  @Transactional(readOnly=false),在需要事务的头部写 @Transactional
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuul增加ssl配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/7/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/7/3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,11 +849,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -889,7 +898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -910,7 +919,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -929,7 +938,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -958,7 +967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -977,7 +986,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -996,7 +1005,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1015,7 +1024,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1034,7 +1043,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1067,8 +1076,12 @@
         <v>29</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
@@ -1077,13 +1090,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1091,18 +1104,18 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1110,7 +1123,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1121,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1129,7 +1142,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1140,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1148,18 +1161,18 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1167,34 +1180,34 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1207,7 +1220,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1220,7 +1233,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1233,7 +1246,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1246,7 +1259,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1259,7 +1272,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1272,7 +1285,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1285,7 +1298,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1298,7 +1311,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1311,7 +1324,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1324,7 +1337,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1337,7 +1350,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1350,7 +1363,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1363,7 +1376,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1376,7 +1389,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1389,7 +1402,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1402,7 +1415,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1415,7 +1428,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1428,7 +1441,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1441,7 +1454,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1454,7 +1467,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1467,7 +1480,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1481,7 +1494,13 @@
       <c r="I38" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I38">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="物料"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B5:B9">
@@ -1534,7 +1553,7 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/doc/待办事项.xlsx
+++ b/doc/待办事项.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题!$A$1:$I$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">问题!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">问题!$A$1:$J$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,14 +189,6 @@
   </si>
   <si>
     <t>刘杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/7/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/7/3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -230,6 +222,26 @@
 四、门店管理，过滤后会弹回至初始界面，分组填什么？无法确认门店在K3系统是否存在
 五、机构管理呢？
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfficeFilter修改，职能部门增加是否有所有部门权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限模块menu相关修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王樟毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/7/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,12 +861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -869,7 +880,7 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -897,8 +908,11 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -918,8 +932,9 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -937,8 +952,9 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -966,8 +982,9 @@
       <c r="I4" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -985,8 +1002,9 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1004,8 +1022,9 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1023,8 +1042,9 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1042,8 +1062,9 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1061,8 +1082,9 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1077,15 +1099,16 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1096,15 +1119,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1118,12 +1142,21 @@
         <v>34</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1141,8 +1174,9 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1160,8 +1194,9 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1179,8 +1214,9 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1198,42 +1234,57 @@
         <v>41</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1245,8 +1296,9 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1258,8 +1310,9 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1271,8 +1324,9 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1284,8 +1338,9 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1297,8 +1352,9 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1310,8 +1366,9 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1323,8 +1380,9 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1336,8 +1394,9 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1349,8 +1408,9 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1362,8 +1422,9 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1375,8 +1436,9 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1388,8 +1450,9 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1401,8 +1464,9 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1414,8 +1478,9 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1427,8 +1492,9 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1440,8 +1506,9 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1453,8 +1520,9 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1466,8 +1534,9 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1479,8 +1548,9 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1492,15 +1562,10 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I38">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="物料"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I38"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B5:B9">
@@ -1509,7 +1574,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C38">
       <formula1>"超高,高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B10:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B10:B19">
       <formula1>"基础,业务,物料,工厂,共通"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/待办事项.xlsx
+++ b/doc/待办事项.xlsx
@@ -11,8 +11,8 @@
     <sheet name="备注" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题!$A$1:$I$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">问题!$A$1:$J$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题!$A$1:$I$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">问题!$A$1:$J$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,10 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>权限模块menu相关修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +238,10 @@
   </si>
   <si>
     <t>2017/7/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李海霞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,11 +861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -909,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -1143,16 +1143,16 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="4"/>
     </row>
@@ -1210,10 +1210,18 @@
         <v>39</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -1234,19 +1242,19 @@
         <v>41</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>38</v>
@@ -1255,7 +1263,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1266,17 +1274,11 @@
     </row>
     <row r="18" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1286,7 +1288,7 @@
     </row>
     <row r="19" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1300,7 +1302,7 @@
     </row>
     <row r="20" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1314,7 +1316,7 @@
     </row>
     <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1328,7 +1330,7 @@
     </row>
     <row r="22" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1342,7 +1344,7 @@
     </row>
     <row r="23" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1356,7 +1358,7 @@
     </row>
     <row r="24" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1370,7 +1372,7 @@
     </row>
     <row r="25" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1384,7 +1386,7 @@
     </row>
     <row r="26" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1398,7 +1400,7 @@
     </row>
     <row r="27" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1412,7 +1414,7 @@
     </row>
     <row r="28" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1426,7 +1428,7 @@
     </row>
     <row r="29" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1440,7 +1442,7 @@
     </row>
     <row r="30" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1454,7 +1456,7 @@
     </row>
     <row r="31" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1468,7 +1470,7 @@
     </row>
     <row r="32" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1482,7 +1484,7 @@
     </row>
     <row r="33" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1496,7 +1498,7 @@
     </row>
     <row r="34" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1510,7 +1512,7 @@
     </row>
     <row r="35" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1524,7 +1526,7 @@
     </row>
     <row r="36" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1538,7 +1540,7 @@
     </row>
     <row r="37" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1550,32 +1552,18 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I38"/>
+  <autoFilter ref="A1:I37"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B5:B9">
       <formula1>"基础,业务,共通"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B10:B18">
+      <formula1>"基础,业务,物料,工厂,共通"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C37">
       <formula1>"超高,高,中,低"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B10:B19">
-      <formula1>"基础,业务,物料,工厂,共通"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/待办事项.xlsx
+++ b/doc/待办事项.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,10 @@
   </si>
   <si>
     <t>李海霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除业务代码中company_id，因为会分库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,8 +868,8 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1018,10 +1022,18 @@
         <v>20</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -1170,10 +1182,18 @@
         <v>36</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -1190,10 +1210,18 @@
         <v>37</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -1266,24 +1294,46 @@
         <v>45</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>18</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">

--- a/doc/待办事项.xlsx
+++ b/doc/待办事项.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\liuj\IdeaProjects\summer\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22259" windowHeight="12638" activeTab="0" tabRatio="600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="问题" sheetId="1" r:id="rId2"/>
-    <sheet name="备注" sheetId="2" r:id="rId3"/>
+    <sheet name="问题" sheetId="1" r:id="rId1"/>
+    <sheet name="备注" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'问题'!$A$1:$J$41</definedName>
-  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="61">
   <si>
     <t>序号</t>
   </si>
@@ -162,7 +166,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="11.0"/>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -170,19 +174,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">-</t>
+      <t>_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11.0"/>
+        <sz val="11"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -190,7 +193,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.0"/>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -198,7 +201,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -206,7 +209,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -214,7 +217,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -226,7 +229,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -234,7 +237,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -242,7 +245,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -257,7 +260,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -265,7 +268,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -273,12 +276,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">-</t>
+      <t>_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -315,18 +317,40 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>批量打印出库单测试</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">仓库扫码要完成和出错的时候报警，不是每扫描一个串码都报警。
+</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>大库调拨功能异常</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂同步可以连接future数据源</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端页面打包后vendor.js过大，需要压缩处理</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/7/5</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="@"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -336,28 +360,44 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -381,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -479,200 +519,62 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="2" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" applyFill="1" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -688,25 +590,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0">
+        <a:xfrm>
           <a:off x="542926" y="0"/>
           <a:ext cx="5429166" cy="3705169"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cmpd="sng" cap="flat">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:noFill/>
           <a:prstDash val="solid"/>
           <a:miter/>
@@ -730,25 +640,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0">
+        <a:xfrm>
           <a:off x="819138" y="4086164"/>
           <a:ext cx="5874303" cy="2724108"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cmpd="sng" cap="flat">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:noFill/>
           <a:prstDash val="solid"/>
           <a:miter/>
@@ -772,25 +690,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0">
+        <a:xfrm>
           <a:off x="771513" y="7057917"/>
           <a:ext cx="5874302" cy="934071"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cmpd="sng" cap="flat">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:noFill/>
           <a:prstDash val="solid"/>
           <a:miter/>
@@ -814,25 +740,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr="C:\Users\zhangyf\Documents\Tencent Files\1054684157\Image\C2C\$Y_LJ95P}2@W@0G$DV7TS6X.png"/>
+        <xdr:cNvPr id="5" name="图片 4" descr="C:\Users\zhangyf\Documents\Tencent Files\1054684157\Image\C2C\$Y_LJ95P}2@W@0G$DV7TS6X.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0">
+        <a:xfrm>
           <a:off x="790563" y="8162800"/>
           <a:ext cx="6427807" cy="3714695"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cmpd="sng" cap="flat">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:noFill/>
           <a:prstDash val="solid"/>
           <a:miter/>
@@ -856,25 +790,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5" descr="C:\Users\KSDZ\AppData\Roaming\Tencent\Users\694245008\QQ\WinTemp\RichOle\7}HU`3T4~3YC@CG_M(%INCT.png"/>
+        <xdr:cNvPr id="6" name="图片 5" descr="C:\Users\KSDZ\AppData\Roaming\Tencent\Users\694245008\QQ\WinTemp\RichOle\7}HU`3T4~3YC@CG_M(%INCT.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0">
+        <a:xfrm>
           <a:off x="771513" y="12125140"/>
           <a:ext cx="9258159" cy="3343225"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cmpd="sng" cap="flat">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:noFill/>
           <a:prstDash val="solid"/>
           <a:miter/>
@@ -886,1831 +828,2162 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr showOutlineSymbols="1"/>
-  </sheetPr>
-  <dimension ref="A1:XFD230"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="100" topLeftCell="A1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C15" activeCellId="0" sqref="C15"/>
-      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="C27:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" defaultColWidth="8.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.88888888888889" customWidth="1" style="4"/>
-    <col min="2" max="2" width="10.222222222222221" customWidth="1" style="4"/>
-    <col min="3" max="3" width="12.11111111111111" customWidth="1" style="4"/>
-    <col min="4" max="4" width="69.22222222222223" customWidth="1" style="4"/>
-    <col min="5" max="5" width="27.555555555555557" customWidth="1" style="4"/>
-    <col min="6" max="6" width="17.77777777777778" customWidth="1" style="4"/>
-    <col min="7" max="7" width="12.777777777777779" customWidth="1" style="4"/>
-    <col min="8" max="16384" width="9.0" customWidth="1" style="4"/>
+    <col min="1" max="1" width="9.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="69.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:10" ht="60" customHeight="1">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="60" customHeight="1">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="60" customHeight="1">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="60" customHeight="1">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="60" customHeight="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="60" customHeight="1">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="60" customHeight="1">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="60" customHeight="1">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="60" customHeight="1">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="150.75" customHeight="1">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="60" customHeight="1">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="60" customHeight="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="60" customHeight="1">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="60" customHeight="1">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="60" customHeight="1">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="60" customHeight="1">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="60" customHeight="1">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="60" customHeight="1">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="60" customHeight="1">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="60" customHeight="1">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="60" customHeight="1">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="60" customHeight="1">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="60" customHeight="1">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
+      <c r="B24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="60" customHeight="1">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5">
+      <c r="B25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="60" customHeight="1">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5">
+      <c r="B26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="60" customHeight="1">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5">
+      <c r="B27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="60" customHeight="1">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5">
+      <c r="B28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="60" customHeight="1">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="60" customHeight="1">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="60" customHeight="1">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="60" customHeight="1">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="60" customHeight="1">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="60" customHeight="1">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="60" customHeight="1">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="60" customHeight="1">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="60" customHeight="1">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="60" customHeight="1">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="60" customHeight="1">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" ht="60" customHeight="1">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" ht="60.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" ht="60" customHeight="1">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.25">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5">
+    <row r="43" spans="1:10" ht="14.25">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5">
+    <row r="44" spans="1:10" ht="14.25">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5">
+    <row r="45" spans="1:10" ht="14.25">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="5">
+    <row r="46" spans="1:10" ht="14.25">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="5">
+    <row r="47" spans="1:10" ht="14.25">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5">
+    <row r="48" spans="1:10" ht="14.25">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5">
+    <row r="49" spans="1:1" ht="14.25">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5">
+    <row r="50" spans="1:1" ht="14.25">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5">
+    <row r="51" spans="1:1" ht="14.25">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5">
+    <row r="52" spans="1:1" ht="14.25">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="5">
+    <row r="53" spans="1:1" ht="14.25">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="5">
+    <row r="54" spans="1:1" ht="14.25">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="5">
+    <row r="55" spans="1:1" ht="14.25">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="5">
+    <row r="56" spans="1:1" ht="14.25">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="5">
+    <row r="57" spans="1:1" ht="14.25">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="5">
+    <row r="58" spans="1:1" ht="14.25">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="5">
+    <row r="59" spans="1:1" ht="14.25">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="5">
+    <row r="60" spans="1:1" ht="14.25">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="5">
+    <row r="61" spans="1:1" ht="14.25">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="5">
+    <row r="62" spans="1:1" ht="14.25">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="5">
+    <row r="63" spans="1:1" ht="14.25">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="5">
+    <row r="64" spans="1:1" ht="14.25">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="5">
+    <row r="65" spans="1:1" ht="14.25">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="5">
+    <row r="66" spans="1:1" ht="14.25">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="5">
+    <row r="67" spans="1:1" ht="14.25">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="5">
+    <row r="68" spans="1:1" ht="14.25">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="5">
+    <row r="69" spans="1:1" ht="14.25">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="5">
+    <row r="70" spans="1:1" ht="14.25">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="5">
+    <row r="71" spans="1:1" ht="14.25">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="5">
+    <row r="72" spans="1:1" ht="14.25">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="5">
+    <row r="73" spans="1:1" ht="14.25">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="5">
+    <row r="74" spans="1:1" ht="14.25">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="5">
+    <row r="75" spans="1:1" ht="14.25">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="5">
+    <row r="76" spans="1:1" ht="14.25">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="5">
+    <row r="77" spans="1:1" ht="14.25">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="5">
+    <row r="78" spans="1:1" ht="14.25">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="5">
+    <row r="79" spans="1:1" ht="14.25">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="5">
+    <row r="80" spans="1:1" ht="14.25">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" s="5">
+    <row r="81" spans="1:1" ht="14.25">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="5">
+    <row r="82" spans="1:1" ht="14.25">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="5">
+    <row r="83" spans="1:1" ht="14.25">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="5">
+    <row r="84" spans="1:1" ht="14.25">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A85" s="5">
+    <row r="85" spans="1:1" ht="14.25">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" s="5">
+    <row r="86" spans="1:1" ht="14.25">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87" s="5">
+    <row r="87" spans="1:1" ht="14.25">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" s="5">
+    <row r="88" spans="1:1" ht="14.25">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A89" s="5">
+    <row r="89" spans="1:1" ht="14.25">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" s="5">
+    <row r="90" spans="1:1" ht="14.25">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91" s="5">
+    <row r="91" spans="1:1" ht="14.25">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" s="5">
+    <row r="92" spans="1:1" ht="14.25">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A93" s="5">
+    <row r="93" spans="1:1" ht="14.25">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" s="5">
+    <row r="94" spans="1:1" ht="14.25">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A95" s="5">
+    <row r="95" spans="1:1" ht="14.25">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" s="5">
+    <row r="96" spans="1:1" ht="14.25">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" s="5">
+    <row r="97" spans="1:1" ht="14.25">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="5">
+    <row r="98" spans="1:1" ht="14.25">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" s="5">
+    <row r="99" spans="1:1" ht="14.25">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="5">
+    <row r="100" spans="1:1" ht="14.25">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" s="5">
+    <row r="101" spans="1:1" ht="14.25">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="5">
+    <row r="102" spans="1:1" ht="14.25">
+      <c r="A102" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A103" s="5">
+    <row r="103" spans="1:1" ht="14.25">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="5">
+    <row r="104" spans="1:1" ht="14.25">
+      <c r="A104" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A105" s="5">
+    <row r="105" spans="1:1" ht="14.25">
+      <c r="A105" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" s="5">
+    <row r="106" spans="1:1" ht="14.25">
+      <c r="A106" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A107" s="5">
+    <row r="107" spans="1:1" ht="14.25">
+      <c r="A107" s="4">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" s="5">
+    <row r="108" spans="1:1" ht="14.25">
+      <c r="A108" s="4">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A109" s="5">
+    <row r="109" spans="1:1" ht="14.25">
+      <c r="A109" s="4">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" s="5">
+    <row r="110" spans="1:1" ht="14.25">
+      <c r="A110" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A111" s="5">
+    <row r="111" spans="1:1" ht="14.25">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A112" s="5">
+    <row r="112" spans="1:1" ht="14.25">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" s="5">
+    <row r="113" spans="1:1" ht="14.25">
+      <c r="A113" s="4">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A114" s="5">
+    <row r="114" spans="1:1" ht="14.25">
+      <c r="A114" s="4">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A115" s="5">
+    <row r="115" spans="1:1" ht="14.25">
+      <c r="A115" s="4">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A116" s="5">
+    <row r="116" spans="1:1" ht="14.25">
+      <c r="A116" s="4">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A117" s="5">
+    <row r="117" spans="1:1" ht="14.25">
+      <c r="A117" s="4">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A118" s="5">
+    <row r="118" spans="1:1" ht="14.25">
+      <c r="A118" s="4">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A119" s="5">
+    <row r="119" spans="1:1" ht="14.25">
+      <c r="A119" s="4">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A120" s="5">
+    <row r="120" spans="1:1" ht="14.25">
+      <c r="A120" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A121" s="5">
+    <row r="121" spans="1:1" ht="14.25">
+      <c r="A121" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A122" s="5">
+    <row r="122" spans="1:1" ht="14.25">
+      <c r="A122" s="4">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A123" s="5">
+    <row r="123" spans="1:1" ht="14.25">
+      <c r="A123" s="4">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A124" s="5">
+    <row r="124" spans="1:1" ht="14.25">
+      <c r="A124" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A125" s="5">
+    <row r="125" spans="1:1" ht="14.25">
+      <c r="A125" s="4">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A126" s="5">
+    <row r="126" spans="1:1" ht="14.25">
+      <c r="A126" s="4">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A127" s="5">
+    <row r="127" spans="1:1" ht="14.25">
+      <c r="A127" s="4">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A128" s="5">
+    <row r="128" spans="1:1" ht="14.25">
+      <c r="A128" s="4">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A129" s="5">
+    <row r="129" spans="1:1" ht="14.25">
+      <c r="A129" s="4">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A130" s="5">
+    <row r="130" spans="1:1" ht="14.25">
+      <c r="A130" s="4">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A131" s="5">
+    <row r="131" spans="1:1" ht="14.25">
+      <c r="A131" s="4">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A132" s="5">
+    <row r="132" spans="1:1" ht="14.25">
+      <c r="A132" s="4">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A133" s="5">
+    <row r="133" spans="1:1" ht="14.25">
+      <c r="A133" s="4">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A134" s="5">
+    <row r="134" spans="1:1" ht="14.25">
+      <c r="A134" s="4">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A135" s="5">
+    <row r="135" spans="1:1" ht="14.25">
+      <c r="A135" s="4">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A136" s="5">
+    <row r="136" spans="1:1" ht="14.25">
+      <c r="A136" s="4">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A137" s="5">
+    <row r="137" spans="1:1" ht="14.25">
+      <c r="A137" s="4">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A138" s="5">
+    <row r="138" spans="1:1" ht="14.25">
+      <c r="A138" s="4">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A139" s="5">
+    <row r="139" spans="1:1" ht="14.25">
+      <c r="A139" s="4">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A140" s="5">
+    <row r="140" spans="1:1" ht="14.25">
+      <c r="A140" s="4">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A141" s="5">
+    <row r="141" spans="1:1" ht="14.25">
+      <c r="A141" s="4">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A142" s="5">
+    <row r="142" spans="1:1" ht="14.25">
+      <c r="A142" s="4">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A143" s="5">
+    <row r="143" spans="1:1" ht="14.25">
+      <c r="A143" s="4">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A144" s="5">
+    <row r="144" spans="1:1" ht="14.25">
+      <c r="A144" s="4">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A145" s="5">
+    <row r="145" spans="1:1" ht="14.25">
+      <c r="A145" s="4">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A146" s="5">
+    <row r="146" spans="1:1" ht="14.25">
+      <c r="A146" s="4">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A147" s="5">
+    <row r="147" spans="1:1" ht="14.25">
+      <c r="A147" s="4">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A148" s="5">
+    <row r="148" spans="1:1" ht="14.25">
+      <c r="A148" s="4">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A149" s="5">
+    <row r="149" spans="1:1" ht="14.25">
+      <c r="A149" s="4">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A150" s="5">
+    <row r="150" spans="1:1" ht="14.25">
+      <c r="A150" s="4">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A151" s="5">
+    <row r="151" spans="1:1" ht="14.25">
+      <c r="A151" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A152" s="5">
+    <row r="152" spans="1:1" ht="14.25">
+      <c r="A152" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A153" s="5">
+    <row r="153" spans="1:1" ht="14.25">
+      <c r="A153" s="4">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A154" s="5">
+    <row r="154" spans="1:1" ht="14.25">
+      <c r="A154" s="4">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A155" s="5">
+    <row r="155" spans="1:1" ht="14.25">
+      <c r="A155" s="4">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A156" s="5">
+    <row r="156" spans="1:1" ht="14.25">
+      <c r="A156" s="4">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A157" s="5">
+    <row r="157" spans="1:1" ht="14.25">
+      <c r="A157" s="4">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A158" s="5">
+    <row r="158" spans="1:1" ht="14.25">
+      <c r="A158" s="4">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A159" s="5">
+    <row r="159" spans="1:1" ht="14.25">
+      <c r="A159" s="4">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A160" s="5">
+    <row r="160" spans="1:1" ht="14.25">
+      <c r="A160" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A161" s="5">
+    <row r="161" spans="1:1" ht="14.25">
+      <c r="A161" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A162" s="5">
+    <row r="162" spans="1:1" ht="14.25">
+      <c r="A162" s="4">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A163" s="5">
+    <row r="163" spans="1:1" ht="14.25">
+      <c r="A163" s="4">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A164" s="5">
+    <row r="164" spans="1:1" ht="14.25">
+      <c r="A164" s="4">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A165" s="5">
+    <row r="165" spans="1:1" ht="14.25">
+      <c r="A165" s="4">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A166" s="5">
+    <row r="166" spans="1:1" ht="14.25">
+      <c r="A166" s="4">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A167" s="5">
+    <row r="167" spans="1:1" ht="14.25">
+      <c r="A167" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A168" s="5">
+    <row r="168" spans="1:1" ht="14.25">
+      <c r="A168" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A169" s="5">
+    <row r="169" spans="1:1" ht="14.25">
+      <c r="A169" s="4">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A170" s="5">
+    <row r="170" spans="1:1" ht="14.25">
+      <c r="A170" s="4">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A171" s="5">
+    <row r="171" spans="1:1" ht="14.25">
+      <c r="A171" s="4">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A172" s="5">
+    <row r="172" spans="1:1" ht="14.25">
+      <c r="A172" s="4">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A173" s="5">
+    <row r="173" spans="1:1" ht="14.25">
+      <c r="A173" s="4">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A174" s="5">
+    <row r="174" spans="1:1" ht="14.25">
+      <c r="A174" s="4">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A175" s="5">
+    <row r="175" spans="1:1" ht="14.25">
+      <c r="A175" s="4">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A176" s="5">
+    <row r="176" spans="1:1" ht="14.25">
+      <c r="A176" s="4">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A177" s="5">
+    <row r="177" spans="1:1" ht="14.25">
+      <c r="A177" s="4">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A178" s="5">
+    <row r="178" spans="1:1" ht="14.25">
+      <c r="A178" s="4">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A179" s="5">
+    <row r="179" spans="1:1" ht="14.25">
+      <c r="A179" s="4">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A180" s="5">
+    <row r="180" spans="1:1" ht="14.25">
+      <c r="A180" s="4">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A181" s="5">
+    <row r="181" spans="1:1" ht="14.25">
+      <c r="A181" s="4">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A182" s="5">
+    <row r="182" spans="1:1" ht="14.25">
+      <c r="A182" s="4">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A183" s="5">
+    <row r="183" spans="1:1" ht="14.25">
+      <c r="A183" s="4">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A184" s="5">
+    <row r="184" spans="1:1" ht="14.25">
+      <c r="A184" s="4">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A185" s="5">
+    <row r="185" spans="1:1" ht="14.25">
+      <c r="A185" s="4">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A186" s="5">
+    <row r="186" spans="1:1" ht="14.25">
+      <c r="A186" s="4">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A187" s="5">
+    <row r="187" spans="1:1" ht="14.25">
+      <c r="A187" s="4">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A188" s="5">
+    <row r="188" spans="1:1" ht="14.25">
+      <c r="A188" s="4">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A189" s="5">
+    <row r="189" spans="1:1" ht="14.25">
+      <c r="A189" s="4">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A190" s="5">
+    <row r="190" spans="1:1" ht="14.25">
+      <c r="A190" s="4">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A191" s="5">
+    <row r="191" spans="1:1" ht="14.25">
+      <c r="A191" s="4">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A192" s="5">
+    <row r="192" spans="1:1" ht="14.25">
+      <c r="A192" s="4">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A193" s="5">
+    <row r="193" spans="1:1" ht="14.25">
+      <c r="A193" s="4">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A194" s="5">
+    <row r="194" spans="1:1" ht="14.25">
+      <c r="A194" s="4">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A195" s="5">
+    <row r="195" spans="1:1" ht="14.25">
+      <c r="A195" s="4">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A196" s="5">
+    <row r="196" spans="1:1" ht="14.25">
+      <c r="A196" s="4">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A197" s="5">
+    <row r="197" spans="1:1" ht="14.25">
+      <c r="A197" s="4">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A198" s="5">
+    <row r="198" spans="1:1" ht="14.25">
+      <c r="A198" s="4">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A199" s="5">
+    <row r="199" spans="1:1" ht="14.25">
+      <c r="A199" s="4">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A200" s="5">
+    <row r="200" spans="1:1" ht="14.25">
+      <c r="A200" s="4">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A201" s="5">
+    <row r="201" spans="1:1" ht="14.25">
+      <c r="A201" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A202" s="5">
+    <row r="202" spans="1:1" ht="14.25">
+      <c r="A202" s="4">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A203" s="5">
+    <row r="203" spans="1:1" ht="14.25">
+      <c r="A203" s="4">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A204" s="5">
+    <row r="204" spans="1:1" ht="14.25">
+      <c r="A204" s="4">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A205" s="5">
+    <row r="205" spans="1:1" ht="14.25">
+      <c r="A205" s="4">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A206" s="5">
+    <row r="206" spans="1:1" ht="14.25">
+      <c r="A206" s="4">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A207" s="5">
+    <row r="207" spans="1:1" ht="14.25">
+      <c r="A207" s="4">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A208" s="5">
+    <row r="208" spans="1:1" ht="14.25">
+      <c r="A208" s="4">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A209" s="5">
+    <row r="209" spans="1:1" ht="14.25">
+      <c r="A209" s="4">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A210" s="5">
+    <row r="210" spans="1:1" ht="14.25">
+      <c r="A210" s="4">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A211" s="5">
+    <row r="211" spans="1:1" ht="14.25">
+      <c r="A211" s="4">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A212" s="5">
+    <row r="212" spans="1:1" ht="14.25">
+      <c r="A212" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A213" s="5">
+    <row r="213" spans="1:1" ht="14.25">
+      <c r="A213" s="4">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A214" s="5">
+    <row r="214" spans="1:1" ht="14.25">
+      <c r="A214" s="4">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A215" s="5">
+    <row r="215" spans="1:1" ht="14.25">
+      <c r="A215" s="4">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A216" s="5">
+    <row r="216" spans="1:1" ht="14.25">
+      <c r="A216" s="4">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A217" s="5">
+    <row r="217" spans="1:1" ht="14.25">
+      <c r="A217" s="4">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A218" s="5">
+    <row r="218" spans="1:1" ht="14.25">
+      <c r="A218" s="4">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A219" s="5">
+    <row r="219" spans="1:1" ht="14.25">
+      <c r="A219" s="4">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A220" s="5">
+    <row r="220" spans="1:1" ht="14.25">
+      <c r="A220" s="4">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A221" s="5">
+    <row r="221" spans="1:1" ht="14.25">
+      <c r="A221" s="4">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A222" s="5">
+    <row r="222" spans="1:1" ht="14.25">
+      <c r="A222" s="4">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A223" s="5">
+    <row r="223" spans="1:1" ht="14.25">
+      <c r="A223" s="4">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A224" s="5">
+    <row r="224" spans="1:1" ht="14.25">
+      <c r="A224" s="4">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A225" s="5">
+    <row r="225" spans="1:1" ht="14.25">
+      <c r="A225" s="4">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A226" s="5">
+    <row r="226" spans="1:1" ht="14.25">
+      <c r="A226" s="4">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A227" s="5">
+    <row r="227" spans="1:1" ht="14.25">
+      <c r="A227" s="4">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A228" s="5">
+    <row r="228" spans="1:1" ht="14.25">
+      <c r="A228" s="4">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A229" s="5">
+    <row r="229" spans="1:1" ht="14.25">
+      <c r="A229" s="4">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A230" s="5">
+    <row r="230" spans="1:1" ht="14.25">
+      <c r="A230" s="4">
         <v>229</v>
       </c>
     </row>
@@ -2718,110 +2991,108 @@
   <autoFilter ref="A1:I41"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="18">
-    <dataValidation allowBlank="1" type="list" sqref="B18" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>"基础,业务,物料,工厂,共通"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="B17" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"基础,业务,物料,工厂,共通"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="C18" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
       <formula1>"超高,高,中,低"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="C17" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
       <formula1>"超高,高,中,低"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="B16" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>"基础,业务,物料,工厂,共通"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="C16" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
       <formula1>"超高,高,中,低"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="C20:C23" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C28">
       <formula1>"超高,高,中,低"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="B20:B23" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B28">
       <formula1>"基础,业务,物料,工厂,共通"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="B2:B3" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">
       <formula1>"基础,业务,共通"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="B5:B9" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B9">
       <formula1>"基础,业务,共通"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="B4" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"基础,业务,物料,工厂,共通"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="C24:C41" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C41">
       <formula1>"超高,高,中,低"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="B19" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>"基础,业务,物料,工厂,共通"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="C19" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
       <formula1>"超高,高,中,低"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="C2:C14" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14">
       <formula1>"超高,高,中,低"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="C15" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
       <formula1>"超高,高,中,低"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="B10:B14" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B14">
       <formula1>"基础,业务,物料,工厂,共通"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" sqref="B15" showInputMessage="1" showErrorMessage="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"基础,业务,物料,工厂,共通"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.6999125161508876" right="0.6999125161508876" top="0.7499062639521802" bottom="0.7499062639521802" header="0.2999625102741512" footer="0.2999625102741512"/>
-  <pageSetup paperSize="9" scale="44"/>
+  <pageMargins left="0.69991251615088756" right="0.69991251615088756" top="0.74990626395218019" bottom="0.74990626395218019" header="0.29996251027415122" footer="0.29996251027415122"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr showOutlineSymbols="1"/>
-  </sheetPr>
-  <dimension ref="A1:XFD68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G95" activeCellId="0" sqref="G95"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="8.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9.0" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" ht="12" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:1" ht="12" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:1" ht="12" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:1" ht="12" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:1" ht="12" customHeight="1">
+      <c r="A68" s="1" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.6999125161508876" right="0.6999125161508876" top="0.7499062639521802" bottom="0.7499062639521802" header="0.2999625102741512" footer="0.2999625102741512"/>
+  <pageMargins left="0.69991251615088756" right="0.69991251615088756" top="0.74990626395218019" bottom="0.74990626395218019" header="0.29996251027415122" footer="0.29996251027415122"/>
   <pageSetup paperSize="9"/>
   <drawing r:id="rId1"/>
 </worksheet>
